--- a/matlabCode/operantMatching/goodBehDays.xlsx
+++ b/matlabCode/operantMatching/goodBehDays.xlsx
@@ -1,45 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cooper_PC\Desktop\githubRepositories\cooperAnalysis\matlabCode\operantMatching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{535C5E87-CC6C-4357-A781-678F11E6E888}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC37CD1-9783-45F0-95A5-82CC84FAE76F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21975" windowHeight="16680" tabRatio="875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21975" windowHeight="16680" tabRatio="875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="29" r:id="rId1"/>
-    <sheet name="CG52" sheetId="47" r:id="rId2"/>
-    <sheet name="CG51" sheetId="46" r:id="rId3"/>
-    <sheet name="dreadds" sheetId="35" r:id="rId4"/>
-    <sheet name="CG50" sheetId="45" r:id="rId5"/>
-    <sheet name="CG49" sheetId="44" r:id="rId6"/>
-    <sheet name="CG48" sheetId="43" r:id="rId7"/>
-    <sheet name="CG47" sheetId="42" r:id="rId8"/>
-    <sheet name="CG46" sheetId="41" r:id="rId9"/>
-    <sheet name="CG45" sheetId="40" r:id="rId10"/>
-    <sheet name="CG44" sheetId="34" r:id="rId11"/>
-    <sheet name="CG43" sheetId="33" r:id="rId12"/>
-    <sheet name="CG42" sheetId="32" r:id="rId13"/>
-    <sheet name="CG41" sheetId="31" r:id="rId14"/>
-    <sheet name="CG25" sheetId="28" r:id="rId15"/>
-    <sheet name="CG24" sheetId="27" r:id="rId16"/>
-    <sheet name="CG23" sheetId="26" r:id="rId17"/>
-    <sheet name="CG18" sheetId="37" r:id="rId18"/>
-    <sheet name="CG16" sheetId="30" r:id="rId19"/>
-    <sheet name="dta" sheetId="36" r:id="rId20"/>
-    <sheet name="CG15" sheetId="11" r:id="rId21"/>
-    <sheet name="CG14" sheetId="9" r:id="rId22"/>
-    <sheet name="CG13" sheetId="3" r:id="rId23"/>
-    <sheet name="CG09" sheetId="2" r:id="rId24"/>
-    <sheet name="CG05" sheetId="10" r:id="rId25"/>
-    <sheet name="CG04" sheetId="25" r:id="rId26"/>
-    <sheet name="CG03" sheetId="24" r:id="rId27"/>
+    <sheet name="CG62" sheetId="51" r:id="rId2"/>
+    <sheet name="CG61" sheetId="50" r:id="rId3"/>
+    <sheet name="CG60" sheetId="49" r:id="rId4"/>
+    <sheet name="CG59" sheetId="48" r:id="rId5"/>
+    <sheet name="CG52" sheetId="47" r:id="rId6"/>
+    <sheet name="CG51" sheetId="46" r:id="rId7"/>
+    <sheet name="dreadds" sheetId="35" r:id="rId8"/>
+    <sheet name="CG50" sheetId="45" r:id="rId9"/>
+    <sheet name="CG49" sheetId="44" r:id="rId10"/>
+    <sheet name="CG48" sheetId="43" r:id="rId11"/>
+    <sheet name="CG47" sheetId="42" r:id="rId12"/>
+    <sheet name="CG46" sheetId="41" r:id="rId13"/>
+    <sheet name="CG45" sheetId="40" r:id="rId14"/>
+    <sheet name="CG44" sheetId="34" r:id="rId15"/>
+    <sheet name="CG43" sheetId="33" r:id="rId16"/>
+    <sheet name="CG42" sheetId="32" r:id="rId17"/>
+    <sheet name="CG41" sheetId="31" r:id="rId18"/>
+    <sheet name="CG25" sheetId="28" r:id="rId19"/>
+    <sheet name="CG24" sheetId="27" r:id="rId20"/>
+    <sheet name="CG23" sheetId="26" r:id="rId21"/>
+    <sheet name="CG18" sheetId="37" r:id="rId22"/>
+    <sheet name="CG16" sheetId="30" r:id="rId23"/>
+    <sheet name="dta" sheetId="36" r:id="rId24"/>
+    <sheet name="CG15" sheetId="11" r:id="rId25"/>
+    <sheet name="CG14" sheetId="9" r:id="rId26"/>
+    <sheet name="CG13" sheetId="3" r:id="rId27"/>
+    <sheet name="CG09" sheetId="2" r:id="rId28"/>
+    <sheet name="CG05" sheetId="10" r:id="rId29"/>
+    <sheet name="CG04" sheetId="25" r:id="rId30"/>
+    <sheet name="CG03" sheetId="24" r:id="rId31"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -54,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2566" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="795">
   <si>
     <t>mCG05d20161115</t>
   </si>
@@ -2325,6 +2329,120 @@
   </si>
   <si>
     <t>mCG52d20180830</t>
+  </si>
+  <si>
+    <t>mCG59d20180914</t>
+  </si>
+  <si>
+    <t>mCG59d20180919</t>
+  </si>
+  <si>
+    <t>mCG59d20180920</t>
+  </si>
+  <si>
+    <t>mCG59d20180921</t>
+  </si>
+  <si>
+    <t>mCG59d20180924</t>
+  </si>
+  <si>
+    <t>mCG59d20180925</t>
+  </si>
+  <si>
+    <t>mCG59d20180926</t>
+  </si>
+  <si>
+    <t>mCG59d20180927</t>
+  </si>
+  <si>
+    <t>mCG59d20181002</t>
+  </si>
+  <si>
+    <t>mCG60d20180914</t>
+  </si>
+  <si>
+    <t>mCG60d20180919</t>
+  </si>
+  <si>
+    <t>mCG60d20180920</t>
+  </si>
+  <si>
+    <t>mCG60d20180921</t>
+  </si>
+  <si>
+    <t>mCG60d20180924</t>
+  </si>
+  <si>
+    <t>mCG60d20180925</t>
+  </si>
+  <si>
+    <t>mCG60d20180926</t>
+  </si>
+  <si>
+    <t>mCG60d20180927</t>
+  </si>
+  <si>
+    <t>mCG60d20181002</t>
+  </si>
+  <si>
+    <t>mCG61d20180914</t>
+  </si>
+  <si>
+    <t>mCG61d20180919</t>
+  </si>
+  <si>
+    <t>mCG61d20180920</t>
+  </si>
+  <si>
+    <t>mCG61d20180921</t>
+  </si>
+  <si>
+    <t>mCG61d20180924</t>
+  </si>
+  <si>
+    <t>mCG61d20180925</t>
+  </si>
+  <si>
+    <t>mCG61d20180926</t>
+  </si>
+  <si>
+    <t>mCG61d20180927</t>
+  </si>
+  <si>
+    <t>mCG61d20181002</t>
+  </si>
+  <si>
+    <t>mCG61d20180913</t>
+  </si>
+  <si>
+    <t>mCG62d20180913</t>
+  </si>
+  <si>
+    <t>mCG62d20180919</t>
+  </si>
+  <si>
+    <t>mCG62d20180920</t>
+  </si>
+  <si>
+    <t>mCG62d20180921</t>
+  </si>
+  <si>
+    <t>mCG62d20180924</t>
+  </si>
+  <si>
+    <t>mCG62d20180925</t>
+  </si>
+  <si>
+    <t>mCG62d20180926</t>
+  </si>
+  <si>
+    <t>mCG62d20181002</t>
+  </si>
+  <si>
+    <t>mCG62d20180916</t>
+  </si>
+  <si>
+    <t>mCG62d20180928</t>
   </si>
 </sst>
 </file>
@@ -4155,6 +4273,895 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76D3787-F720-43BE-BE23-DA7A970762D1}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>633</v>
+      </c>
+      <c r="B2" t="s">
+        <v>633</v>
+      </c>
+      <c r="C2" t="s">
+        <v>661</v>
+      </c>
+      <c r="D2" t="s">
+        <v>667</v>
+      </c>
+      <c r="E2" t="s">
+        <v>727</v>
+      </c>
+      <c r="F2" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>634</v>
+      </c>
+      <c r="B3" t="s">
+        <v>634</v>
+      </c>
+      <c r="C3" t="s">
+        <v>685</v>
+      </c>
+      <c r="D3" t="s">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>635</v>
+      </c>
+      <c r="B4" t="s">
+        <v>635</v>
+      </c>
+      <c r="D4" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>636</v>
+      </c>
+      <c r="B5" t="s">
+        <v>636</v>
+      </c>
+      <c r="D5" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>637</v>
+      </c>
+      <c r="B6" t="s">
+        <v>637</v>
+      </c>
+      <c r="D6" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B7" t="s">
+        <v>638</v>
+      </c>
+      <c r="D7" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>639</v>
+      </c>
+      <c r="B8" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>640</v>
+      </c>
+      <c r="B9" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>641</v>
+      </c>
+      <c r="B10" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>642</v>
+      </c>
+      <c r="B11" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>643</v>
+      </c>
+      <c r="B12" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>661</v>
+      </c>
+      <c r="B13" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>667</v>
+      </c>
+      <c r="B14" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>686</v>
+      </c>
+      <c r="B15" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>728</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CABB42-D828-4499-87B6-7F3ADC11FB6C}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>622</v>
+      </c>
+      <c r="B2" t="s">
+        <v>622</v>
+      </c>
+      <c r="C2" t="s">
+        <v>660</v>
+      </c>
+      <c r="D2" t="s">
+        <v>666</v>
+      </c>
+      <c r="E2" t="s">
+        <v>725</v>
+      </c>
+      <c r="F2" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>623</v>
+      </c>
+      <c r="B3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C3" t="s">
+        <v>693</v>
+      </c>
+      <c r="D3" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>624</v>
+      </c>
+      <c r="B4" t="s">
+        <v>624</v>
+      </c>
+      <c r="D4" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B5" t="s">
+        <v>625</v>
+      </c>
+      <c r="D5" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>626</v>
+      </c>
+      <c r="B6" t="s">
+        <v>626</v>
+      </c>
+      <c r="D6" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>627</v>
+      </c>
+      <c r="B7" t="s">
+        <v>627</v>
+      </c>
+      <c r="D7" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>628</v>
+      </c>
+      <c r="B8" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>629</v>
+      </c>
+      <c r="B9" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>630</v>
+      </c>
+      <c r="B10" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>631</v>
+      </c>
+      <c r="B11" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>632</v>
+      </c>
+      <c r="B12" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>660</v>
+      </c>
+      <c r="B13" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>666</v>
+      </c>
+      <c r="B14" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>694</v>
+      </c>
+      <c r="B15" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>695</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>726</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554766CB-119F-447C-8126-9E9B57290F56}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>611</v>
+      </c>
+      <c r="B2" t="s">
+        <v>611</v>
+      </c>
+      <c r="C2" t="s">
+        <v>659</v>
+      </c>
+      <c r="D2" t="s">
+        <v>665</v>
+      </c>
+      <c r="E2" t="s">
+        <v>723</v>
+      </c>
+      <c r="F2" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>612</v>
+      </c>
+      <c r="B3" t="s">
+        <v>612</v>
+      </c>
+      <c r="C3" t="s">
+        <v>701</v>
+      </c>
+      <c r="D3" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>613</v>
+      </c>
+      <c r="B4" t="s">
+        <v>613</v>
+      </c>
+      <c r="D4" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>614</v>
+      </c>
+      <c r="B5" t="s">
+        <v>614</v>
+      </c>
+      <c r="D5" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>615</v>
+      </c>
+      <c r="B6" t="s">
+        <v>615</v>
+      </c>
+      <c r="D6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>616</v>
+      </c>
+      <c r="B7" t="s">
+        <v>616</v>
+      </c>
+      <c r="D7" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>617</v>
+      </c>
+      <c r="B8" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>618</v>
+      </c>
+      <c r="B9" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>619</v>
+      </c>
+      <c r="B10" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>620</v>
+      </c>
+      <c r="B11" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>621</v>
+      </c>
+      <c r="B12" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>659</v>
+      </c>
+      <c r="B13" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>665</v>
+      </c>
+      <c r="B14" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>702</v>
+      </c>
+      <c r="B15" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>723</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>724</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4148BF86-A084-4BDF-9BA6-491EC7006D91}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>550</v>
+      </c>
+      <c r="D1" t="s">
+        <v>553</v>
+      </c>
+      <c r="E1" t="s">
+        <v>717</v>
+      </c>
+      <c r="F1" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>600</v>
+      </c>
+      <c r="B2" t="s">
+        <v>600</v>
+      </c>
+      <c r="C2" t="s">
+        <v>658</v>
+      </c>
+      <c r="D2" t="s">
+        <v>664</v>
+      </c>
+      <c r="E2" t="s">
+        <v>721</v>
+      </c>
+      <c r="F2" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>601</v>
+      </c>
+      <c r="B3" t="s">
+        <v>601</v>
+      </c>
+      <c r="C3" t="s">
+        <v>709</v>
+      </c>
+      <c r="D3" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>602</v>
+      </c>
+      <c r="B4" t="s">
+        <v>602</v>
+      </c>
+      <c r="D4" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>603</v>
+      </c>
+      <c r="B5" t="s">
+        <v>603</v>
+      </c>
+      <c r="D5" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B6" t="s">
+        <v>604</v>
+      </c>
+      <c r="D6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>605</v>
+      </c>
+      <c r="B7" t="s">
+        <v>605</v>
+      </c>
+      <c r="D7" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>606</v>
+      </c>
+      <c r="B8" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>607</v>
+      </c>
+      <c r="B9" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>608</v>
+      </c>
+      <c r="B10" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>609</v>
+      </c>
+      <c r="B11" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>610</v>
+      </c>
+      <c r="B12" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>658</v>
+      </c>
+      <c r="B13" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>664</v>
+      </c>
+      <c r="B14" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>710</v>
+      </c>
+      <c r="B15" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>722</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F6F781B-05F7-4138-ADC4-D0EA838F2883}">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -4377,7 +5384,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F286BCE7-D2D4-4B9A-AF31-2ACEE9F66CC6}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -4551,7 +5558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{323713F2-6459-44D0-B874-19277B3A69D0}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -4728,7 +5735,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96397BA9-EEA8-4258-9642-8C7688374814}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -4905,7 +5912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B473570-6873-44E7-90C6-6E27741765D2}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -5083,7 +6090,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:G33"/>
   <sheetViews>
@@ -5471,7 +6478,82 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D65198-CD7E-4CD7-8CD5-CC786702D4DF}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="21.42578125" customWidth="1"/>
+    <col min="3" max="3" width="23.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>792</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
@@ -5802,7 +6884,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:G31"/>
   <sheetViews>
@@ -6158,7 +7240,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EF34AAB7-AA72-4136-9543-E636C6C2E5C8}">
   <dimension ref="A1:A16"/>
   <sheetViews>
@@ -6256,7 +7338,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A365224-DE23-4A0D-AA9B-41E155A09F1A}">
   <dimension ref="A1:B15"/>
   <sheetViews>
@@ -6356,94 +7438,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720C92FB-A525-47A2-A0F3-A8556FF1D8E9}">
-  <dimension ref="A1:B13"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="21.42578125" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>741</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>753</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>754</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>755</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>756</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{674D1323-1CC6-47F6-80BC-8F163F8DE94C}">
   <dimension ref="A1:B43"/>
   <sheetViews>
@@ -6806,7 +7801,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H75"/>
   <sheetViews>
@@ -7821,7 +8816,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H70"/>
   <sheetViews>
@@ -8697,7 +9692,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
@@ -9070,7 +10065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E33"/>
   <sheetViews>
@@ -9464,7 +10459,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H87"/>
   <sheetViews>
@@ -10586,7 +11581,82 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8164CABE-2713-4497-BBEB-99AE364EDCD5}">
+  <dimension ref="A1:A11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>783</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D25"/>
   <sheetViews>
@@ -10815,7 +11885,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D37"/>
   <sheetViews>
@@ -11144,7 +12214,233 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A43753-457F-4644-84F7-9AEB6B6419BB}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>774</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828A872D-FE31-4D47-9836-89C8B2C030F1}">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.28515625" customWidth="1"/>
+    <col min="2" max="3" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>765</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{720C92FB-A525-47A2-A0F3-A8556FF1D8E9}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>756</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{69728C59-D8D5-4029-9D54-AAD3E34AA135}">
   <dimension ref="A1:B13"/>
   <sheetViews>
@@ -11231,7 +12527,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F38DD776-C4BC-4F60-841E-9B220EB8C8EB}">
   <dimension ref="A1:G130"/>
   <sheetViews>
@@ -12374,7 +13670,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7F0AC20A-800D-4328-B206-BB66F7B62008}">
   <dimension ref="A1:F24"/>
   <sheetViews>
@@ -12594,893 +13890,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E76D3787-F720-43BE-BE23-DA7A970762D1}">
-  <dimension ref="A1:F24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" t="s">
-        <v>549</v>
-      </c>
-      <c r="C1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E1" t="s">
-        <v>717</v>
-      </c>
-      <c r="F1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>633</v>
-      </c>
-      <c r="B2" t="s">
-        <v>633</v>
-      </c>
-      <c r="C2" t="s">
-        <v>661</v>
-      </c>
-      <c r="D2" t="s">
-        <v>667</v>
-      </c>
-      <c r="E2" t="s">
-        <v>727</v>
-      </c>
-      <c r="F2" t="s">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>634</v>
-      </c>
-      <c r="B3" t="s">
-        <v>634</v>
-      </c>
-      <c r="C3" t="s">
-        <v>685</v>
-      </c>
-      <c r="D3" t="s">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>635</v>
-      </c>
-      <c r="B4" t="s">
-        <v>635</v>
-      </c>
-      <c r="D4" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>636</v>
-      </c>
-      <c r="B5" t="s">
-        <v>636</v>
-      </c>
-      <c r="D5" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>637</v>
-      </c>
-      <c r="B6" t="s">
-        <v>637</v>
-      </c>
-      <c r="D6" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>638</v>
-      </c>
-      <c r="B7" t="s">
-        <v>638</v>
-      </c>
-      <c r="D7" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>639</v>
-      </c>
-      <c r="B8" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>640</v>
-      </c>
-      <c r="B9" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>641</v>
-      </c>
-      <c r="B10" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>642</v>
-      </c>
-      <c r="B11" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>643</v>
-      </c>
-      <c r="B12" t="s">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>661</v>
-      </c>
-      <c r="B13" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>667</v>
-      </c>
-      <c r="B14" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>686</v>
-      </c>
-      <c r="B15" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>691</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>685</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>687</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>689</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>728</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66CABB42-D828-4499-87B6-7F3ADC11FB6C}">
-  <dimension ref="A1:F24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" t="s">
-        <v>549</v>
-      </c>
-      <c r="C1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E1" t="s">
-        <v>717</v>
-      </c>
-      <c r="F1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>622</v>
-      </c>
-      <c r="B2" t="s">
-        <v>622</v>
-      </c>
-      <c r="C2" t="s">
-        <v>660</v>
-      </c>
-      <c r="D2" t="s">
-        <v>666</v>
-      </c>
-      <c r="E2" t="s">
-        <v>725</v>
-      </c>
-      <c r="F2" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>623</v>
-      </c>
-      <c r="B3" t="s">
-        <v>623</v>
-      </c>
-      <c r="C3" t="s">
-        <v>693</v>
-      </c>
-      <c r="D3" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>624</v>
-      </c>
-      <c r="B4" t="s">
-        <v>624</v>
-      </c>
-      <c r="D4" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>625</v>
-      </c>
-      <c r="B5" t="s">
-        <v>625</v>
-      </c>
-      <c r="D5" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>626</v>
-      </c>
-      <c r="B6" t="s">
-        <v>626</v>
-      </c>
-      <c r="D6" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>627</v>
-      </c>
-      <c r="B7" t="s">
-        <v>627</v>
-      </c>
-      <c r="D7" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>628</v>
-      </c>
-      <c r="B8" t="s">
-        <v>628</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>629</v>
-      </c>
-      <c r="B9" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>630</v>
-      </c>
-      <c r="B10" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>631</v>
-      </c>
-      <c r="B11" t="s">
-        <v>631</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>632</v>
-      </c>
-      <c r="B12" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>660</v>
-      </c>
-      <c r="B13" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>666</v>
-      </c>
-      <c r="B14" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>694</v>
-      </c>
-      <c r="B15" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>695</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>696</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>697</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>726</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{554766CB-119F-447C-8126-9E9B57290F56}">
-  <dimension ref="A1:F24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" t="s">
-        <v>549</v>
-      </c>
-      <c r="C1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E1" t="s">
-        <v>717</v>
-      </c>
-      <c r="F1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>611</v>
-      </c>
-      <c r="B2" t="s">
-        <v>611</v>
-      </c>
-      <c r="C2" t="s">
-        <v>659</v>
-      </c>
-      <c r="D2" t="s">
-        <v>665</v>
-      </c>
-      <c r="E2" t="s">
-        <v>723</v>
-      </c>
-      <c r="F2" t="s">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>612</v>
-      </c>
-      <c r="B3" t="s">
-        <v>612</v>
-      </c>
-      <c r="C3" t="s">
-        <v>701</v>
-      </c>
-      <c r="D3" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>613</v>
-      </c>
-      <c r="B4" t="s">
-        <v>613</v>
-      </c>
-      <c r="D4" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>614</v>
-      </c>
-      <c r="B5" t="s">
-        <v>614</v>
-      </c>
-      <c r="D5" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>615</v>
-      </c>
-      <c r="B6" t="s">
-        <v>615</v>
-      </c>
-      <c r="D6" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>616</v>
-      </c>
-      <c r="B7" t="s">
-        <v>616</v>
-      </c>
-      <c r="D7" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>617</v>
-      </c>
-      <c r="B8" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>618</v>
-      </c>
-      <c r="B9" t="s">
-        <v>618</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>619</v>
-      </c>
-      <c r="B10" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>620</v>
-      </c>
-      <c r="B11" t="s">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>621</v>
-      </c>
-      <c r="B12" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>659</v>
-      </c>
-      <c r="B13" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>665</v>
-      </c>
-      <c r="B14" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>702</v>
-      </c>
-      <c r="B15" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>708</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>723</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>724</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4148BF86-A084-4BDF-9BA6-491EC7006D91}">
-  <dimension ref="A1:F24"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="17.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" t="s">
-        <v>549</v>
-      </c>
-      <c r="C1" t="s">
-        <v>550</v>
-      </c>
-      <c r="D1" t="s">
-        <v>553</v>
-      </c>
-      <c r="E1" t="s">
-        <v>717</v>
-      </c>
-      <c r="F1" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>600</v>
-      </c>
-      <c r="B2" t="s">
-        <v>600</v>
-      </c>
-      <c r="C2" t="s">
-        <v>658</v>
-      </c>
-      <c r="D2" t="s">
-        <v>664</v>
-      </c>
-      <c r="E2" t="s">
-        <v>721</v>
-      </c>
-      <c r="F2" t="s">
-        <v>722</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>601</v>
-      </c>
-      <c r="B3" t="s">
-        <v>601</v>
-      </c>
-      <c r="C3" t="s">
-        <v>709</v>
-      </c>
-      <c r="D3" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>602</v>
-      </c>
-      <c r="B4" t="s">
-        <v>602</v>
-      </c>
-      <c r="D4" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>603</v>
-      </c>
-      <c r="B5" t="s">
-        <v>603</v>
-      </c>
-      <c r="D5" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>604</v>
-      </c>
-      <c r="B6" t="s">
-        <v>604</v>
-      </c>
-      <c r="D6" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>605</v>
-      </c>
-      <c r="B7" t="s">
-        <v>605</v>
-      </c>
-      <c r="D7" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>606</v>
-      </c>
-      <c r="B8" t="s">
-        <v>606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>607</v>
-      </c>
-      <c r="B9" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>608</v>
-      </c>
-      <c r="B10" t="s">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>609</v>
-      </c>
-      <c r="B11" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>610</v>
-      </c>
-      <c r="B12" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>658</v>
-      </c>
-      <c r="B13" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>664</v>
-      </c>
-      <c r="B14" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>710</v>
-      </c>
-      <c r="B15" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>716</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>712</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>721</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>722</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/matlabCode/operantMatching/goodBehDays.xlsx
+++ b/matlabCode/operantMatching/goodBehDays.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20827"/>
   <workbookPr autoCompressPictures="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cooper_PC\Desktop\githubRepositories\cooperAnalysis\matlabCode\operantMatching\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FC37CD1-9783-45F0-95A5-82CC84FAE76F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAD1DAAA-1E1B-43AE-BB27-81CEF0D0A3B1}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21975" windowHeight="16680" tabRatio="875" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21975" windowHeight="16680" tabRatio="875" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="29" r:id="rId1"/>
@@ -45,7 +45,7 @@
     <sheet name="CG04" sheetId="25" r:id="rId30"/>
     <sheet name="CG03" sheetId="24" r:id="rId31"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2608" uniqueCount="795">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2760" uniqueCount="864">
   <si>
     <t>mCG05d20161115</t>
   </si>
@@ -2443,6 +2443,213 @@
   </si>
   <si>
     <t>mCG62d20180928</t>
+  </si>
+  <si>
+    <t>mCG59d20181003</t>
+  </si>
+  <si>
+    <t>mCG59d20181004</t>
+  </si>
+  <si>
+    <t>mCG59d20181005</t>
+  </si>
+  <si>
+    <t>mCG59d20181008</t>
+  </si>
+  <si>
+    <t>mCG59d20181009</t>
+  </si>
+  <si>
+    <t>mCG59d20181010</t>
+  </si>
+  <si>
+    <t>mCG59d20181011</t>
+  </si>
+  <si>
+    <t>mCG62d20181003</t>
+  </si>
+  <si>
+    <t>mCG62d20181004</t>
+  </si>
+  <si>
+    <t>mCG62d20181005</t>
+  </si>
+  <si>
+    <t>mCG62d20181008</t>
+  </si>
+  <si>
+    <t>mCG62d20181009</t>
+  </si>
+  <si>
+    <t>mCG62d20181010</t>
+  </si>
+  <si>
+    <t>mCG62d20181011</t>
+  </si>
+  <si>
+    <t>mCG61d20181003</t>
+  </si>
+  <si>
+    <t>mCG61d20181004</t>
+  </si>
+  <si>
+    <t>mCG61d20181005</t>
+  </si>
+  <si>
+    <t>mCG61d20181008</t>
+  </si>
+  <si>
+    <t>mCG61d20181009</t>
+  </si>
+  <si>
+    <t>mCG61d20181010</t>
+  </si>
+  <si>
+    <t>mCG61d20181011</t>
+  </si>
+  <si>
+    <t>mCG60d20181003</t>
+  </si>
+  <si>
+    <t>mCG60d20181004</t>
+  </si>
+  <si>
+    <t>mCG60d20181005</t>
+  </si>
+  <si>
+    <t>mCG60d20181008</t>
+  </si>
+  <si>
+    <t>mCG60d20181009</t>
+  </si>
+  <si>
+    <t>mCG60d20181010</t>
+  </si>
+  <si>
+    <t>mCG60d20181011</t>
+  </si>
+  <si>
+    <t>woof</t>
+  </si>
+  <si>
+    <t>both</t>
+  </si>
+  <si>
+    <t>mCG59d20181012</t>
+  </si>
+  <si>
+    <t>mCG59d20181015</t>
+  </si>
+  <si>
+    <t>mCG59d20181016a</t>
+  </si>
+  <si>
+    <t>opto</t>
+  </si>
+  <si>
+    <t>mCG59d20181017</t>
+  </si>
+  <si>
+    <t>mCG59d20181022</t>
+  </si>
+  <si>
+    <t>mCG59d20181023</t>
+  </si>
+  <si>
+    <t>mCG59d20181024</t>
+  </si>
+  <si>
+    <t>mCG59d20181025</t>
+  </si>
+  <si>
+    <t>mCG59d20181026</t>
+  </si>
+  <si>
+    <t>mCG60d20181012</t>
+  </si>
+  <si>
+    <t>mCG60d20181026</t>
+  </si>
+  <si>
+    <t>mCG60d20181015</t>
+  </si>
+  <si>
+    <t>mCG60d20181025</t>
+  </si>
+  <si>
+    <t>mCG60d20181022</t>
+  </si>
+  <si>
+    <t>mCG60d20181023</t>
+  </si>
+  <si>
+    <t>mCG60d20181024</t>
+  </si>
+  <si>
+    <t>mCG60d20181013</t>
+  </si>
+  <si>
+    <t>mCG60d20181016</t>
+  </si>
+  <si>
+    <t>mCG60d20181017b</t>
+  </si>
+  <si>
+    <t>mCG61d20181012</t>
+  </si>
+  <si>
+    <t>mCG61d20181015</t>
+  </si>
+  <si>
+    <t>mCG61d20181025</t>
+  </si>
+  <si>
+    <t>mCG61d20181016</t>
+  </si>
+  <si>
+    <t>mCG61d20181022</t>
+  </si>
+  <si>
+    <t>mCG61d20181023</t>
+  </si>
+  <si>
+    <t>mCG61d20181024</t>
+  </si>
+  <si>
+    <t>mCG61d20181026</t>
+  </si>
+  <si>
+    <t>mCG61d20181013</t>
+  </si>
+  <si>
+    <t>mCG61d20181017</t>
+  </si>
+  <si>
+    <t>mCG62d20181012</t>
+  </si>
+  <si>
+    <t>mCG62d20181015</t>
+  </si>
+  <si>
+    <t>mCG62d20181025</t>
+  </si>
+  <si>
+    <t>mCG62d20181016</t>
+  </si>
+  <si>
+    <t>mCG62d20181022</t>
+  </si>
+  <si>
+    <t>mCG62d20181023</t>
+  </si>
+  <si>
+    <t>mCG62d20181024</t>
+  </si>
+  <si>
+    <t>mCG62d20181026</t>
+  </si>
+  <si>
+    <t>mCG62d20181013</t>
   </si>
 </sst>
 </file>
@@ -6480,72 +6687,185 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44D65198-CD7E-4CD7-8CD5-CC786702D4DF}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" customWidth="1"/>
-    <col min="3" max="3" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>785</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>855</v>
+      </c>
+      <c r="C2" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>793</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>856</v>
+      </c>
+      <c r="C3" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>786</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>787</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>788</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>789</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>790</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>791</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>794</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>862</v>
       </c>
     </row>
   </sheetData>
@@ -7803,10 +8123,10 @@
 
 <file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:J75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E27"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7819,9 +8139,11 @@
     <col min="6" max="6" width="19.140625" customWidth="1"/>
     <col min="7" max="7" width="21.140625" customWidth="1"/>
     <col min="8" max="8" width="30.140625" customWidth="1"/>
+    <col min="9" max="9" width="18" customWidth="1"/>
+    <col min="10" max="10" width="19.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>260</v>
       </c>
@@ -7846,8 +8168,14 @@
       <c r="H1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>463</v>
+      </c>
+      <c r="J1" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>167</v>
       </c>
@@ -7872,8 +8200,14 @@
       <c r="H2" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>175</v>
+      </c>
+      <c r="J2" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>168</v>
       </c>
@@ -7892,8 +8226,14 @@
       <c r="F3" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>176</v>
+      </c>
+      <c r="J3" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>169</v>
       </c>
@@ -7913,7 +8253,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>170</v>
       </c>
@@ -7933,7 +8273,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>171</v>
       </c>
@@ -7953,7 +8293,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>172</v>
       </c>
@@ -7973,7 +8313,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>173</v>
       </c>
@@ -7993,7 +8333,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>174</v>
       </c>
@@ -8013,7 +8353,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>175</v>
       </c>
@@ -8033,7 +8373,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>176</v>
       </c>
@@ -8053,7 +8393,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>177</v>
       </c>
@@ -8073,7 +8413,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>178</v>
       </c>
@@ -8093,7 +8433,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>179</v>
       </c>
@@ -8113,7 +8453,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>180</v>
       </c>
@@ -8133,7 +8473,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>181</v>
       </c>
@@ -8818,10 +9158,10 @@
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:H70"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8834,9 +9174,10 @@
     <col min="6" max="6" width="33.7109375" customWidth="1"/>
     <col min="7" max="7" width="24.85546875" customWidth="1"/>
     <col min="8" max="8" width="19" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>260</v>
       </c>
@@ -8861,8 +9202,11 @@
       <c r="H1" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>147</v>
       </c>
@@ -8887,8 +9231,11 @@
       <c r="H2" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>148</v>
       </c>
@@ -8907,8 +9254,11 @@
       <c r="F3" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>149</v>
       </c>
@@ -8927,8 +9277,11 @@
       <c r="F4" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>150</v>
       </c>
@@ -8947,8 +9300,11 @@
       <c r="F5" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>151</v>
       </c>
@@ -8967,8 +9323,11 @@
       <c r="F6" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>152</v>
       </c>
@@ -8987,8 +9346,11 @@
       <c r="F7" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>153</v>
       </c>
@@ -9007,8 +9369,11 @@
       <c r="F8" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>154</v>
       </c>
@@ -9027,8 +9392,11 @@
       <c r="F9" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>155</v>
       </c>
@@ -9047,8 +9415,11 @@
       <c r="F10" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>156</v>
       </c>
@@ -9067,8 +9438,11 @@
       <c r="F11" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>157</v>
       </c>
@@ -9087,8 +9461,11 @@
       <c r="F12" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>158</v>
       </c>
@@ -9107,8 +9484,11 @@
       <c r="F13" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>159</v>
       </c>
@@ -9127,8 +9507,11 @@
       <c r="F14" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>160</v>
       </c>
@@ -9147,8 +9530,11 @@
       <c r="F15" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>161</v>
       </c>
@@ -9167,8 +9553,11 @@
       <c r="F16" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>162</v>
       </c>
@@ -9187,8 +9576,11 @@
       <c r="F17" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I17" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>163</v>
       </c>
@@ -9201,8 +9593,11 @@
       <c r="D18" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I18" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>164</v>
       </c>
@@ -9215,8 +9610,11 @@
       <c r="D19" t="s">
         <v>257</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I19" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>165</v>
       </c>
@@ -9229,8 +9627,11 @@
       <c r="D20" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>166</v>
       </c>
@@ -9243,8 +9644,11 @@
       <c r="D21" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>233</v>
       </c>
@@ -9257,8 +9661,11 @@
       <c r="D22" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>234</v>
       </c>
@@ -9271,8 +9678,11 @@
       <c r="D23" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>235</v>
       </c>
@@ -9285,8 +9695,11 @@
       <c r="D24" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>236</v>
       </c>
@@ -9299,8 +9712,11 @@
       <c r="D25" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>237</v>
       </c>
@@ -9313,8 +9729,11 @@
       <c r="D26" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>238</v>
       </c>
@@ -9327,8 +9746,11 @@
       <c r="D27" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>239</v>
       </c>
@@ -9341,8 +9763,11 @@
       <c r="D28" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>240</v>
       </c>
@@ -9352,8 +9777,11 @@
       <c r="D29" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>241</v>
       </c>
@@ -9363,8 +9791,11 @@
       <c r="D30" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>242</v>
       </c>
@@ -9374,8 +9805,11 @@
       <c r="D31" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>243</v>
       </c>
@@ -9385,8 +9819,11 @@
       <c r="D32" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>244</v>
       </c>
@@ -9396,8 +9833,11 @@
       <c r="D33" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>204</v>
       </c>
@@ -9408,7 +9848,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>205</v>
       </c>
@@ -9419,7 +9859,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>206</v>
       </c>
@@ -9430,7 +9870,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>207</v>
       </c>
@@ -9441,7 +9881,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>208</v>
       </c>
@@ -9452,7 +9892,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>209</v>
       </c>
@@ -9460,7 +9900,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>210</v>
       </c>
@@ -9468,7 +9908,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>211</v>
       </c>
@@ -9476,7 +9916,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>230</v>
       </c>
@@ -9484,7 +9924,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>231</v>
       </c>
@@ -9492,7 +9932,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>232</v>
       </c>
@@ -9500,7 +9940,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>245</v>
       </c>
@@ -9508,7 +9948,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>246</v>
       </c>
@@ -9516,7 +9956,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>252</v>
       </c>
@@ -9524,7 +9964,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>253</v>
       </c>
@@ -9696,7 +10136,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:D40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -10070,7 +10510,7 @@
   <dimension ref="A1:E33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11583,72 +12023,193 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8164CABE-2713-4497-BBEB-99AE364EDCD5}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A18" sqref="A18:A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.28515625" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>784</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>845</v>
+      </c>
+      <c r="C2" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>775</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>846</v>
+      </c>
+      <c r="C3" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>776</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>777</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>778</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>780</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>781</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>782</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>783</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>852</v>
       </c>
     </row>
   </sheetData>
@@ -12216,67 +12777,188 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A43753-457F-4644-84F7-9AEB6B6419BB}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C6"/>
+      <selection activeCell="A18" sqref="A18:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="2" width="18.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.28515625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>766</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>835</v>
+      </c>
+      <c r="C2" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>767</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>837</v>
+      </c>
+      <c r="C3" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>768</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>769</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>770</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>771</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>772</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>773</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>774</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>836</v>
       </c>
     </row>
   </sheetData>
@@ -12286,66 +12968,183 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{828A872D-FE31-4D47-9836-89C8B2C030F1}">
-  <dimension ref="A1:A10"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20.28515625" customWidth="1"/>
-    <col min="2" max="3" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.85546875" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>549</v>
+      </c>
+      <c r="C1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>757</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>801</v>
+      </c>
+      <c r="C2" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>758</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>826</v>
+      </c>
+      <c r="C3" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>834</v>
       </c>
     </row>
   </sheetData>
@@ -12445,7 +13244,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/matlabCode/operantMatching/goodBehDays.xlsx
+++ b/matlabCode/operantMatching/goodBehDays.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="28705"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="0" windowWidth="25600" windowHeight="16060" tabRatio="875" activeTab="3"/>
+    <workbookView xWindow="2280" yWindow="0" windowWidth="25600" windowHeight="16120" tabRatio="875" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="29" r:id="rId1"/>
@@ -52,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2686" uniqueCount="865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2947" uniqueCount="899">
   <si>
     <t>mCG05d20161115</t>
   </si>
@@ -2325,201 +2325,9 @@
     <t>mCG52d20180830</t>
   </si>
   <si>
-    <t>mCG59d20180914</t>
-  </si>
-  <si>
-    <t>mCG59d20180919</t>
-  </si>
-  <si>
-    <t>mCG59d20180920</t>
-  </si>
-  <si>
-    <t>mCG59d20180921</t>
-  </si>
-  <si>
-    <t>mCG59d20180924</t>
-  </si>
-  <si>
-    <t>mCG59d20180925</t>
-  </si>
-  <si>
-    <t>mCG59d20180926</t>
-  </si>
-  <si>
-    <t>mCG59d20180927</t>
-  </si>
-  <si>
-    <t>mCG59d20181002</t>
-  </si>
-  <si>
-    <t>mCG60d20180914</t>
-  </si>
-  <si>
-    <t>mCG60d20180919</t>
-  </si>
-  <si>
-    <t>mCG60d20180920</t>
-  </si>
-  <si>
-    <t>mCG60d20180921</t>
-  </si>
-  <si>
-    <t>mCG60d20180924</t>
-  </si>
-  <si>
-    <t>mCG60d20180925</t>
-  </si>
-  <si>
-    <t>mCG60d20180926</t>
-  </si>
-  <si>
-    <t>mCG60d20180927</t>
-  </si>
-  <si>
-    <t>mCG60d20181002</t>
-  </si>
-  <si>
-    <t>mCG61d20180914</t>
-  </si>
-  <si>
-    <t>mCG61d20180919</t>
-  </si>
-  <si>
-    <t>mCG61d20180920</t>
-  </si>
-  <si>
-    <t>mCG61d20180921</t>
-  </si>
-  <si>
-    <t>mCG61d20180924</t>
-  </si>
-  <si>
-    <t>mCG61d20180925</t>
-  </si>
-  <si>
-    <t>mCG61d20180926</t>
-  </si>
-  <si>
-    <t>mCG61d20180927</t>
-  </si>
-  <si>
-    <t>mCG61d20181002</t>
-  </si>
-  <si>
-    <t>mCG61d20180913</t>
-  </si>
-  <si>
-    <t>mCG62d20180913</t>
-  </si>
-  <si>
-    <t>mCG62d20180919</t>
-  </si>
-  <si>
-    <t>mCG62d20180920</t>
-  </si>
-  <si>
-    <t>mCG62d20180921</t>
-  </si>
-  <si>
-    <t>mCG62d20180924</t>
-  </si>
-  <si>
-    <t>mCG62d20180925</t>
-  </si>
-  <si>
-    <t>mCG62d20180926</t>
-  </si>
-  <si>
-    <t>mCG62d20181002</t>
-  </si>
-  <si>
-    <t>mCG62d20180916</t>
-  </si>
-  <si>
-    <t>mCG62d20180928</t>
-  </si>
-  <si>
-    <t>mCG59d20181003</t>
-  </si>
-  <si>
-    <t>mCG59d20181004</t>
-  </si>
-  <si>
-    <t>mCG59d20181005</t>
-  </si>
-  <si>
-    <t>mCG59d20181008</t>
-  </si>
-  <si>
-    <t>mCG59d20181009</t>
-  </si>
-  <si>
-    <t>mCG59d20181010</t>
-  </si>
-  <si>
-    <t>mCG60d20181003</t>
-  </si>
-  <si>
-    <t>mCG60d20181004</t>
-  </si>
-  <si>
-    <t>mCG60d20181005</t>
-  </si>
-  <si>
-    <t>mCG60d20181008</t>
-  </si>
-  <si>
-    <t>mCG60d20181009</t>
-  </si>
-  <si>
-    <t>mCG60d20181010</t>
-  </si>
-  <si>
-    <t>mCG61d20181003</t>
-  </si>
-  <si>
-    <t>mCG61d20181004</t>
-  </si>
-  <si>
-    <t>mCG61d20181005</t>
-  </si>
-  <si>
-    <t>mCG61d20181008</t>
-  </si>
-  <si>
-    <t>mCG61d20181009</t>
-  </si>
-  <si>
-    <t>mCG61d20181010</t>
-  </si>
-  <si>
-    <t>mCG62d20181003</t>
-  </si>
-  <si>
-    <t>mCG62d20181004</t>
-  </si>
-  <si>
-    <t>mCG62d20181005</t>
-  </si>
-  <si>
-    <t>mCG62d20181008</t>
-  </si>
-  <si>
-    <t>mCG62d20181009</t>
-  </si>
-  <si>
-    <t>mCG62d20181010</t>
-  </si>
-  <si>
-    <t>inhibition</t>
-  </si>
-  <si>
     <t>mCG59d20181012</t>
   </si>
   <si>
-    <t>mCG59d20181011</t>
-  </si>
-  <si>
     <t>mCG59d20181015</t>
   </si>
   <si>
@@ -2613,40 +2421,334 @@
     <t>mCG61d20181026</t>
   </si>
   <si>
+    <t>mCG62d20181011</t>
+  </si>
+  <si>
+    <t>mCG62d20181012</t>
+  </si>
+  <si>
+    <t>mCG62d20181013</t>
+  </si>
+  <si>
+    <t>mCG62d20181015</t>
+  </si>
+  <si>
+    <t>mCG62d20181016</t>
+  </si>
+  <si>
+    <t>mCG62d20181022</t>
+  </si>
+  <si>
+    <t>mCG62d20181023</t>
+  </si>
+  <si>
+    <t>mCG62d20181024</t>
+  </si>
+  <si>
+    <t>mCG62d20181026</t>
+  </si>
+  <si>
+    <t>mCG62d20181025</t>
+  </si>
+  <si>
+    <t>mCG60d20181025</t>
+  </si>
+  <si>
+    <t>mCG59d20181030</t>
+  </si>
+  <si>
+    <t>mCG59d20181031</t>
+  </si>
+  <si>
+    <t>mCG61d20181030</t>
+  </si>
+  <si>
+    <t>mCG61d20181031</t>
+  </si>
+  <si>
+    <t>mCG60d20181030</t>
+  </si>
+  <si>
+    <t>mCG60d20181031</t>
+  </si>
+  <si>
+    <t>mCG60d20181101</t>
+  </si>
+  <si>
+    <t>mCG61d20181101</t>
+  </si>
+  <si>
+    <t>mCG62d20181030</t>
+  </si>
+  <si>
+    <t>mCG62d20181101</t>
+  </si>
+  <si>
+    <t>mCG62d20181031</t>
+  </si>
+  <si>
+    <t>all controlled</t>
+  </si>
+  <si>
+    <t>mCG59d20181029</t>
+  </si>
+  <si>
+    <t>mCG60d20181029</t>
+  </si>
+  <si>
+    <t>mCG61d20181029</t>
+  </si>
+  <si>
+    <t>mCG62d20181029</t>
+  </si>
+  <si>
+    <t>mCG59d20181108</t>
+  </si>
+  <si>
+    <t>mCG59d20181109</t>
+  </si>
+  <si>
+    <t>mCG59d20181110</t>
+  </si>
+  <si>
+    <t>mCG59d20181112</t>
+  </si>
+  <si>
+    <t>mCG59d20181114</t>
+  </si>
+  <si>
+    <t>mCG59d20181116</t>
+  </si>
+  <si>
+    <t>mCG59d20181117</t>
+  </si>
+  <si>
+    <t>mCG60d20181109</t>
+  </si>
+  <si>
+    <t>mCG60d20181112</t>
+  </si>
+  <si>
+    <t>mCG60d20181116</t>
+  </si>
+  <si>
+    <t>mCG60d20181108</t>
+  </si>
+  <si>
+    <t>mCG60d20181110</t>
+  </si>
+  <si>
+    <t>mCG60d20181114</t>
+  </si>
+  <si>
+    <t>mCG60d20181117</t>
+  </si>
+  <si>
+    <t>mCG61d20181109</t>
+  </si>
+  <si>
+    <t>mCG61d20181112</t>
+  </si>
+  <si>
+    <t>mCG61d20181116</t>
+  </si>
+  <si>
+    <t>mCG61d20181108</t>
+  </si>
+  <si>
+    <t>mCG61d20181110</t>
+  </si>
+  <si>
+    <t>mCG61d20181114</t>
+  </si>
+  <si>
+    <t>mCG61d20181117</t>
+  </si>
+  <si>
+    <t>mCG62d20181109</t>
+  </si>
+  <si>
+    <t>mCG62d20181112</t>
+  </si>
+  <si>
+    <t>mCG62d20181116</t>
+  </si>
+  <si>
+    <t>mCG62d20181108</t>
+  </si>
+  <si>
+    <t>mCG62d20181110</t>
+  </si>
+  <si>
+    <t>mCG62d20181114</t>
+  </si>
+  <si>
+    <t>mCG62d20181117</t>
+  </si>
+  <si>
+    <t>mCG59d20181119</t>
+  </si>
+  <si>
+    <t>mCG59d20181120</t>
+  </si>
+  <si>
+    <t>mCG59d20181122</t>
+  </si>
+  <si>
+    <t>mCG59d20181123</t>
+  </si>
+  <si>
+    <t>mCG60d20181120</t>
+  </si>
+  <si>
+    <t>mCG60d20181122</t>
+  </si>
+  <si>
+    <t>mCG60d20181123</t>
+  </si>
+  <si>
+    <t>mCG60d20181119</t>
+  </si>
+  <si>
+    <t>mCG61d20181120</t>
+  </si>
+  <si>
+    <t>mCG61d20181122</t>
+  </si>
+  <si>
+    <t>mCG61d20181123</t>
+  </si>
+  <si>
+    <t>mCG59d20181126</t>
+  </si>
+  <si>
+    <t>mCG59d20181127</t>
+  </si>
+  <si>
+    <t>mCG59d20181128</t>
+  </si>
+  <si>
+    <t>mCG59d20181129</t>
+  </si>
+  <si>
+    <t>mCG59d20181130</t>
+  </si>
+  <si>
+    <t>mCG59d20181203</t>
+  </si>
+  <si>
+    <t>mCG59d20181204</t>
+  </si>
+  <si>
+    <t>mCG59d20181205</t>
+  </si>
+  <si>
+    <t>mCG59d20181206</t>
+  </si>
+  <si>
+    <t>mCG60d20181126</t>
+  </si>
+  <si>
+    <t>mCG60d20181127</t>
+  </si>
+  <si>
+    <t>mCG60d20181128</t>
+  </si>
+  <si>
+    <t>mCG60d20181129</t>
+  </si>
+  <si>
+    <t>mCG60d20181130</t>
+  </si>
+  <si>
+    <t>mCG60d20181203</t>
+  </si>
+  <si>
+    <t>mCG60d20181204</t>
+  </si>
+  <si>
+    <t>mCG60d20181205</t>
+  </si>
+  <si>
+    <t>mCG60d20181206</t>
+  </si>
+  <si>
+    <t>mCG61d20181126</t>
+  </si>
+  <si>
+    <t>mCG61d20181127</t>
+  </si>
+  <si>
+    <t>mCG61d20181128</t>
+  </si>
+  <si>
+    <t>mCG61d20181129</t>
+  </si>
+  <si>
+    <t>mCG61d20181130</t>
+  </si>
+  <si>
+    <t>mCG61d20181203</t>
+  </si>
+  <si>
+    <t>mCG61d20181204</t>
+  </si>
+  <si>
+    <t>mCG61d20181205</t>
+  </si>
+  <si>
+    <t>mCG61d20181206</t>
+  </si>
+  <si>
+    <t>mCG62d20181126</t>
+  </si>
+  <si>
+    <t>mCG62d20181127</t>
+  </si>
+  <si>
+    <t>mCG62d20181128</t>
+  </si>
+  <si>
+    <t>mCG62d20181129</t>
+  </si>
+  <si>
+    <t>mCG62d20181130</t>
+  </si>
+  <si>
+    <t>mCG62d20181203</t>
+  </si>
+  <si>
+    <t>mCG62d20181204</t>
+  </si>
+  <si>
+    <t>mCG62d20181205</t>
+  </si>
+  <si>
+    <t>mCG62d20181206</t>
+  </si>
+  <si>
     <t xml:space="preserve">inhibition </t>
   </si>
   <si>
-    <t>mCG62d20181011</t>
-  </si>
-  <si>
-    <t>mCG62d20181012</t>
-  </si>
-  <si>
-    <t>mCG62d20181013</t>
-  </si>
-  <si>
-    <t>mCG62d20181015</t>
-  </si>
-  <si>
-    <t>mCG62d20181016</t>
-  </si>
-  <si>
-    <t>mCG62d20181022</t>
-  </si>
-  <si>
-    <t>mCG62d20181023</t>
-  </si>
-  <si>
-    <t>mCG62d20181024</t>
-  </si>
-  <si>
-    <t>mCG62d20181026</t>
-  </si>
-  <si>
-    <t>mCG62d20181025</t>
-  </si>
-  <si>
-    <t>mCG60d20181025</t>
+    <t xml:space="preserve">PFC </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DRN </t>
+  </si>
+  <si>
+    <t>Db</t>
+  </si>
+  <si>
+    <t>Pb</t>
+  </si>
+  <si>
+    <t>mCG62d20181120</t>
+  </si>
+  <si>
+    <t>mCG62d20181122</t>
+  </si>
+  <si>
+    <t>mCG62d20181123</t>
   </si>
 </sst>
 </file>
@@ -2702,7 +2804,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="51">
+  <cellStyleXfs count="559">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2754,12 +2856,523 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="51">
+  <cellStyles count="559">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -2785,6 +3398,260 @@
     <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="230" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="232" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="234" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="236" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="238" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="240" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="242" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="244" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="246" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="248" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="250" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="252" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="254" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="256" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="258" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="260" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="262" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="264" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="266" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="268" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="270" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="272" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="274" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="276" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="278" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="280" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="282" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="284" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="286" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="288" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="290" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="292" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="294" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="296" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="298" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="300" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="302" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="304" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="306" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="308" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="310" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="312" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="314" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="316" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="318" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="320" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="322" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="324" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="326" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="328" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="330" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="332" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="334" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="336" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="338" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="340" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="342" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="344" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="346" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="348" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="350" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="352" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="354" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="356" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="358" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="360" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="362" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="364" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="366" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="368" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="370" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="372" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="374" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="376" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="378" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="380" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="382" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="384" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="386" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="388" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="390" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="392" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="394" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="396" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="398" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="400" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="402" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="404" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="406" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="408" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="410" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="412" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="414" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="416" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="418" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="420" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="422" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="424" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="426" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="428" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="430" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="432" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="434" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="436" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="438" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="440" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="442" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="444" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="446" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="448" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="450" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="452" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="454" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="456" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="458" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="460" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="462" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="464" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="466" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="468" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="470" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="472" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="474" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="476" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="478" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="480" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="482" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="484" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="486" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="488" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="490" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="492" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="494" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="496" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="498" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="500" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="502" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="504" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="506" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="508" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="510" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="512" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="514" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="516" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="518" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="520" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="522" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="524" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="526" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="528" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="530" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="532" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="534" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="536" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="538" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="540" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="542" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="544" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="546" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="548" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="550" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="552" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="554" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="556" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="558" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -2810,6 +3677,260 @@
     <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="229" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="231" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="233" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="235" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="237" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="239" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="241" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="243" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="245" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="247" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="249" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="251" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="253" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="255" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="257" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="259" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="261" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="263" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="265" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="267" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="269" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="271" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="273" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="275" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="277" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="279" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="281" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="283" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="285" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="287" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="289" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="291" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="293" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="295" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="297" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="299" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="301" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="303" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="305" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="307" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="309" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="311" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="313" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="315" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="317" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="319" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="321" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="323" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="325" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="327" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="329" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="331" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="333" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="335" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="337" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="339" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="341" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="343" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="345" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="347" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="349" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="351" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="353" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="355" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="357" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="359" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="361" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="363" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="365" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="367" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="369" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="371" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="373" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="375" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="377" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="379" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="381" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="383" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="385" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="387" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="389" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="391" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="393" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="395" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="397" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="399" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="401" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="403" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="405" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="407" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="409" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="411" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="413" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="415" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="417" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="419" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="421" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="423" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="425" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="427" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="429" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="431" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="433" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="435" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="437" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="439" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="441" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="443" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="445" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="447" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="449" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="451" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="453" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="455" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="457" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="459" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="461" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="463" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="465" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="467" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="469" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="471" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="473" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="475" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="477" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="479" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="481" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="483" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="485" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="487" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="489" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="491" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="493" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="495" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="497" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="499" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="501" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="503" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="505" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="507" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="509" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="511" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="513" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="515" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="517" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="519" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="521" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="523" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="525" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="527" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="529" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="531" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="533" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="535" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="537" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="539" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="541" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="543" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="545" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="547" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="549" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="551" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="553" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="555" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="557" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -3114,7 +4235,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3124,7 +4245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B203"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B98" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -6809,10 +7930,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6820,151 +7941,383 @@
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="21.5" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="17.33203125" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>785</v>
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="1" t="s">
+        <v>789</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
+        <v>789</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="D2" t="s">
+        <v>837</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="F2" t="s">
+        <v>840</v>
+      </c>
+      <c r="G2" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="1" t="s">
+        <v>790</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="D3" t="s">
+        <v>838</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="F3" t="s">
+        <v>841</v>
+      </c>
+      <c r="G3" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>808</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="D4" t="s">
+        <v>839</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="F4" t="s">
+        <v>842</v>
+      </c>
+      <c r="G4" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="1" t="s">
+        <v>792</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>793</v>
       </c>
-      <c r="B3" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>786</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>787</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="A7" t="s">
-        <v>789</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>790</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>791</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" t="s">
+        <v>882</v>
+      </c>
+      <c r="F5" t="s">
+        <v>843</v>
+      </c>
+      <c r="G5" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B6" t="s">
+        <v>837</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>794</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="E6" t="s">
+        <v>883</v>
+      </c>
+      <c r="G6" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="1" t="s">
+        <v>794</v>
+      </c>
+      <c r="B7" t="s">
+        <v>838</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="E7" t="s">
+        <v>884</v>
+      </c>
+      <c r="G7" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B8" t="s">
+        <v>839</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="1" t="s">
+        <v>798</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>810</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>813</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>815</v>
+      </c>
+      <c r="B12" t="s">
+        <v>882</v>
+      </c>
+      <c r="C12" t="s">
+        <v>840</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>808</v>
+      </c>
+      <c r="B13" t="s">
+        <v>883</v>
+      </c>
+      <c r="C13" t="s">
+        <v>841</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>810</v>
+      </c>
+      <c r="B14" t="s">
+        <v>884</v>
+      </c>
+      <c r="C14" t="s">
+        <v>842</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>817</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>809</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" t="s">
+        <v>843</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>840</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" t="s">
+        <v>885</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>837</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" t="s">
+        <v>886</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>841</v>
+      </c>
+      <c r="C18" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>838</v>
+      </c>
+      <c r="C19" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>842</v>
+      </c>
+      <c r="C20" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>839</v>
+      </c>
+      <c r="C21" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>861</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>843</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1" t="s">
+        <v>896</v>
+      </c>
+      <c r="F23" s="1"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="F25" s="1"/>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>863</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>862</v>
-      </c>
+        <v>883</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>889</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12022,10 +13375,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="F2" sqref="F2:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12033,156 +13386,375 @@
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="17.33203125" customWidth="1"/>
     <col min="3" max="3" width="21.5" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B2" t="s">
+        <v>778</v>
+      </c>
+      <c r="C2" t="s">
+        <v>780</v>
+      </c>
+      <c r="D2" t="s">
+        <v>830</v>
+      </c>
+      <c r="E2" t="s">
+        <v>876</v>
+      </c>
+      <c r="F2" t="s">
+        <v>833</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>780</v>
+      </c>
+      <c r="B3" t="s">
+        <v>779</v>
+      </c>
+      <c r="C3" t="s">
+        <v>781</v>
+      </c>
+      <c r="D3" t="s">
+        <v>831</v>
+      </c>
+      <c r="E3" t="s">
+        <v>877</v>
+      </c>
+      <c r="F3" t="s">
+        <v>834</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>853</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>781</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="C4" t="s">
+        <v>782</v>
+      </c>
+      <c r="D4" t="s">
+        <v>832</v>
+      </c>
+      <c r="E4" t="s">
+        <v>878</v>
+      </c>
+      <c r="F4" t="s">
+        <v>835</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>782</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C5" t="s">
+        <v>783</v>
+      </c>
+      <c r="E5" t="s">
+        <v>879</v>
+      </c>
+      <c r="F5" t="s">
+        <v>836</v>
+      </c>
+      <c r="G5" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>783</v>
+      </c>
+      <c r="B6" t="s">
+        <v>830</v>
+      </c>
+      <c r="C6" t="s">
         <v>784</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>778</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="E6" t="s">
+        <v>880</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>852</v>
+      </c>
+      <c r="G6" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>784</v>
+      </c>
+      <c r="B7" t="s">
+        <v>831</v>
+      </c>
+      <c r="C7" t="s">
+        <v>785</v>
+      </c>
+      <c r="E7" t="s">
+        <v>881</v>
+      </c>
+      <c r="G7" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>785</v>
+      </c>
+      <c r="B8" t="s">
+        <v>832</v>
+      </c>
+      <c r="C8" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>786</v>
+      </c>
+      <c r="B9" t="s">
+        <v>876</v>
+      </c>
+      <c r="C9" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>787</v>
+      </c>
+      <c r="B10" t="s">
+        <v>877</v>
+      </c>
+      <c r="C10" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
         <v>779</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
-        <v>782</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>783</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="A12" s="1" t="s">
+      <c r="B11" t="s">
+        <v>878</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s">
+        <v>788</v>
+      </c>
+      <c r="B12" t="s">
+        <v>879</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="1" t="s">
+        <v>814</v>
+      </c>
+      <c r="B13" t="s">
+        <v>880</v>
+      </c>
+      <c r="C13" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>802</v>
+      </c>
+      <c r="B14" t="s">
+        <v>881</v>
+      </c>
+      <c r="C14" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C15" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
         <v>807</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" s="1" t="s">
-        <v>808</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" s="1" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" s="1" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" s="1" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" s="1" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" s="1" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="C16" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" t="s">
+        <v>833</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>830</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>834</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>845</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>831</v>
+      </c>
+      <c r="C20" t="s">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>835</v>
+      </c>
+      <c r="C21" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>832</v>
+      </c>
+      <c r="C22" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>849</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>873</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>852</v>
-      </c>
+        <v>874</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>877</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1">
+      <c r="A41" s="1"/>
+    </row>
+    <row r="42" spans="1:1">
+      <c r="A42" s="1"/>
+    </row>
+    <row r="43" spans="1:1">
+      <c r="A43" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12755,10 +14327,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B28"/>
+  <dimension ref="A1:G37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A26" sqref="A26:A28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -12766,155 +14338,384 @@
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.83203125" customWidth="1"/>
     <col min="3" max="3" width="20.33203125" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="16" customWidth="1"/>
+    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B2" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>767</v>
+      </c>
+      <c r="C2" t="s">
+        <v>768</v>
+      </c>
+      <c r="D2" t="s">
+        <v>823</v>
+      </c>
+      <c r="E2" t="s">
+        <v>848</v>
+      </c>
+      <c r="F2" t="s">
+        <v>826</v>
+      </c>
+      <c r="G2" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B3" t="s">
+        <v>799</v>
+      </c>
+      <c r="C3" t="s">
+        <v>769</v>
+      </c>
+      <c r="D3" t="s">
+        <v>824</v>
+      </c>
+      <c r="E3" t="s">
+        <v>849</v>
+      </c>
+      <c r="F3" t="s">
+        <v>827</v>
+      </c>
+      <c r="G3" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>769</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>804</v>
+      </c>
+      <c r="C4" t="s">
+        <v>770</v>
+      </c>
+      <c r="D4" t="s">
+        <v>825</v>
+      </c>
+      <c r="E4" t="s">
+        <v>850</v>
+      </c>
+      <c r="F4" t="s">
+        <v>828</v>
+      </c>
+      <c r="G4" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>770</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C5" t="s">
+        <v>775</v>
+      </c>
+      <c r="D5" t="s">
+        <v>851</v>
+      </c>
+      <c r="E5" t="s">
         <v>864</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="F5" t="s">
+        <v>829</v>
+      </c>
+      <c r="G5" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>775</v>
+      </c>
+      <c r="B6" t="s">
+        <v>823</v>
+      </c>
+      <c r="C6" t="s">
+        <v>777</v>
+      </c>
+      <c r="E6" t="s">
+        <v>865</v>
+      </c>
+      <c r="G6" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
+        <v>777</v>
+      </c>
+      <c r="B7" t="s">
+        <v>824</v>
+      </c>
+      <c r="C7" t="s">
+        <v>776</v>
+      </c>
+      <c r="E7" t="s">
+        <v>866</v>
+      </c>
+      <c r="G7" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>776</v>
+      </c>
+      <c r="B8" t="s">
+        <v>825</v>
+      </c>
+      <c r="C8" t="s">
         <v>771</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>771</v>
+      </c>
+      <c r="B9" t="s">
+        <v>851</v>
+      </c>
+      <c r="C9" t="s">
         <v>772</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>772</v>
+      </c>
+      <c r="B10" t="s">
+        <v>848</v>
+      </c>
+      <c r="C10" t="s">
         <v>773</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10" t="s">
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>773</v>
+      </c>
+      <c r="B11" t="s">
+        <v>849</v>
+      </c>
+      <c r="C11" t="s">
         <v>774</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>802</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>799</v>
+      </c>
+      <c r="B12" t="s">
+        <v>850</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>813</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
+        <v>774</v>
+      </c>
+      <c r="B13" t="s">
+        <v>864</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B14" t="s">
+        <v>865</v>
+      </c>
+      <c r="C14" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="1" t="s">
         <v>804</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
+      <c r="B15" t="s">
+        <v>866</v>
+      </c>
+      <c r="C15" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="1" t="s">
         <v>805</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
-      <c r="A16" t="s">
+      <c r="C16" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1" t="s">
         <v>806</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="C17" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>826</v>
+      </c>
+      <c r="C18" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>823</v>
+      </c>
+      <c r="C19" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>827</v>
+      </c>
+      <c r="C20" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>824</v>
+      </c>
+      <c r="C21" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>841</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>828</v>
+      </c>
+      <c r="C22" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>825</v>
+      </c>
+      <c r="C23" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>829</v>
+      </c>
+      <c r="C24" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
         <v>864</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>838</v>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>867</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>869</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" t="s">
+        <v>871</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1">
+      <c r="A37" t="s">
+        <v>872</v>
       </c>
     </row>
   </sheetData>
@@ -12930,150 +14731,371 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18:XFD18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="3" width="18.1640625" customWidth="1"/>
+    <col min="4" max="4" width="18.83203125" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" customWidth="1"/>
+    <col min="6" max="6" width="26.1640625" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>260</v>
-      </c>
-      <c r="B1" t="s">
-        <v>819</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+    <row r="1" spans="1:7">
+      <c r="A1" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>894</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>757</v>
       </c>
       <c r="B2" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>757</v>
+      </c>
+      <c r="C2" t="s">
+        <v>758</v>
+      </c>
+      <c r="D2" t="s">
+        <v>817</v>
+      </c>
+      <c r="E2" t="s">
+        <v>858</v>
+      </c>
+      <c r="F2" t="s">
+        <v>845</v>
+      </c>
+      <c r="G2" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>758</v>
       </c>
       <c r="B3" t="s">
-        <v>829</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>765</v>
+      </c>
+      <c r="C3" t="s">
+        <v>759</v>
+      </c>
+      <c r="D3" t="s">
+        <v>819</v>
+      </c>
+      <c r="E3" t="s">
+        <v>859</v>
+      </c>
+      <c r="F3" t="s">
+        <v>846</v>
+      </c>
+      <c r="G3" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>759</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="B4" t="s">
+        <v>800</v>
+      </c>
+      <c r="C4" t="s">
+        <v>760</v>
+      </c>
+      <c r="D4" t="s">
+        <v>821</v>
+      </c>
+      <c r="E4" t="s">
+        <v>860</v>
+      </c>
+      <c r="F4" t="s">
+        <v>847</v>
+      </c>
+      <c r="G4" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" t="s">
         <v>760</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="B5" t="s">
+        <v>817</v>
+      </c>
+      <c r="C5" t="s">
+        <v>761</v>
+      </c>
+      <c r="D5" t="s">
+        <v>844</v>
+      </c>
+      <c r="E5" t="s">
+        <v>861</v>
+      </c>
+      <c r="F5" t="s">
+        <v>855</v>
+      </c>
+      <c r="G5" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" t="s">
         <v>761</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="B6" t="s">
+        <v>819</v>
+      </c>
+      <c r="C6" t="s">
+        <v>762</v>
+      </c>
+      <c r="E6" t="s">
+        <v>862</v>
+      </c>
+      <c r="F6" t="s">
+        <v>856</v>
+      </c>
+      <c r="G6" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" t="s">
         <v>762</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="B7" t="s">
+        <v>821</v>
+      </c>
+      <c r="C7" t="s">
+        <v>763</v>
+      </c>
+      <c r="E7" t="s">
+        <v>863</v>
+      </c>
+      <c r="F7" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" t="s">
         <v>763</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="B8" t="s">
+        <v>844</v>
+      </c>
+      <c r="C8" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" t="s">
         <v>764</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="B9" t="s">
+        <v>858</v>
+      </c>
+      <c r="C9" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
         <v>765</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="B10" t="s">
+        <v>859</v>
+      </c>
+      <c r="C10" t="s">
+        <v>812</v>
+      </c>
+      <c r="G10" s="2"/>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" t="s">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>766</v>
+      </c>
+      <c r="B11" t="s">
+        <v>860</v>
+      </c>
+      <c r="C11" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>812</v>
+      </c>
+      <c r="B12" t="s">
+        <v>861</v>
+      </c>
+      <c r="C12" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>800</v>
+      </c>
+      <c r="B13" t="s">
+        <v>862</v>
+      </c>
+      <c r="C13" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>801</v>
+      </c>
+      <c r="B14" t="s">
+        <v>863</v>
+      </c>
+      <c r="C14" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>799</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>816</v>
+      </c>
+      <c r="C15" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>817</v>
+      </c>
+      <c r="C16" t="s">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
       <c r="A17" t="s">
+        <v>818</v>
+      </c>
+      <c r="C17" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" t="s">
+        <v>819</v>
+      </c>
+      <c r="C18" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" t="s">
+        <v>820</v>
+      </c>
+      <c r="C19" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" t="s">
         <v>821</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
+      <c r="C20" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" t="s">
         <v>822</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="C21" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>828</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>830</v>
+        <v>847</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" t="s">
+        <v>861</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" t="s">
+        <v>863</v>
       </c>
     </row>
   </sheetData>
